--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -540,40 +540,40 @@
         <v>1.036416</v>
       </c>
       <c r="I2">
-        <v>0.04252318178201096</v>
+        <v>0.4258685247791129</v>
       </c>
       <c r="J2">
-        <v>0.06245684087400865</v>
+        <v>0.5266590341921646</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4181826666666666</v>
+        <v>0.01941266666666666</v>
       </c>
       <c r="N2">
-        <v>1.254548</v>
+        <v>0.058238</v>
       </c>
       <c r="O2">
-        <v>0.2449873014729237</v>
+        <v>0.01959774779686022</v>
       </c>
       <c r="P2">
-        <v>0.2627048370182498</v>
+        <v>0.01978237955823044</v>
       </c>
       <c r="Q2">
-        <v>0.1444704022186667</v>
+        <v>0.006706532778666666</v>
       </c>
       <c r="R2">
-        <v>1.300233619968</v>
+        <v>0.060358795008</v>
       </c>
       <c r="S2">
-        <v>0.01041763955481746</v>
+        <v>0.00834606394324197</v>
       </c>
       <c r="T2">
-        <v>0.0164077142024812</v>
+        <v>0.01041856891216046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.036416</v>
       </c>
       <c r="I3">
-        <v>0.04252318178201096</v>
+        <v>0.4258685247791129</v>
       </c>
       <c r="J3">
-        <v>0.06245684087400865</v>
+        <v>0.5266590341921646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>2.830225</v>
       </c>
       <c r="O3">
-        <v>0.5526844611056775</v>
+        <v>0.9524028256184742</v>
       </c>
       <c r="P3">
-        <v>0.5926547229360503</v>
+        <v>0.9613754796729409</v>
       </c>
       <c r="Q3">
         <v>0.3259211637333333</v>
@@ -632,10 +632,10 @@
         <v>2.9332904736</v>
       </c>
       <c r="S3">
-        <v>0.02350190180768949</v>
+        <v>0.4055983863415983</v>
       </c>
       <c r="T3">
-        <v>0.03701534172364657</v>
+        <v>0.5063170816205801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.036416</v>
       </c>
       <c r="I4">
-        <v>0.04252318178201096</v>
+        <v>0.4258685247791129</v>
       </c>
       <c r="J4">
-        <v>0.06245684087400865</v>
+        <v>0.5266590341921646</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.3453655</v>
+        <v>0.027735</v>
       </c>
       <c r="N4">
-        <v>0.6907310000000001</v>
+        <v>0.05547</v>
       </c>
       <c r="O4">
-        <v>0.2023282374213989</v>
+        <v>0.02799942658466558</v>
       </c>
       <c r="P4">
-        <v>0.1446404400456999</v>
+        <v>0.01884214076882864</v>
       </c>
       <c r="Q4">
-        <v>0.119314110016</v>
+        <v>0.009581665919999999</v>
       </c>
       <c r="R4">
-        <v>0.715884660096</v>
+        <v>0.05748999552</v>
       </c>
       <c r="S4">
-        <v>0.008603640419504018</v>
+        <v>0.01192407449427261</v>
       </c>
       <c r="T4">
-        <v>0.009033784947880867</v>
+        <v>0.009923383659424101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>7.7788495</v>
+        <v>0.4657455</v>
       </c>
       <c r="H5">
-        <v>15.557699</v>
+        <v>0.931491</v>
       </c>
       <c r="I5">
-        <v>0.9574768182179889</v>
+        <v>0.5741314752208871</v>
       </c>
       <c r="J5">
-        <v>0.9375431591259914</v>
+        <v>0.4733409658078355</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4181826666666666</v>
+        <v>0.01941266666666666</v>
       </c>
       <c r="N5">
-        <v>1.254548</v>
+        <v>0.058238</v>
       </c>
       <c r="O5">
-        <v>0.2449873014729237</v>
+        <v>0.01959774779686022</v>
       </c>
       <c r="P5">
-        <v>0.2627048370182498</v>
+        <v>0.01978237955823044</v>
       </c>
       <c r="Q5">
-        <v>3.252980027508666</v>
+        <v>0.009041362142999998</v>
       </c>
       <c r="R5">
-        <v>19.517880165052</v>
+        <v>0.05424817285799999</v>
       </c>
       <c r="S5">
-        <v>0.2345696619181062</v>
+        <v>0.01125168385361825</v>
       </c>
       <c r="T5">
-        <v>0.2462971228157686</v>
+        <v>0.009363810646069977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>7.7788495</v>
+        <v>0.4657455</v>
       </c>
       <c r="H6">
-        <v>15.557699</v>
+        <v>0.931491</v>
       </c>
       <c r="I6">
-        <v>0.9574768182179889</v>
+        <v>0.5741314752208871</v>
       </c>
       <c r="J6">
-        <v>0.9375431591259914</v>
+        <v>0.4733409658078355</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.830225</v>
       </c>
       <c r="O6">
-        <v>0.5526844611056775</v>
+        <v>0.9524028256184742</v>
       </c>
       <c r="P6">
-        <v>0.5926547229360503</v>
+        <v>0.9613754796729409</v>
       </c>
       <c r="Q6">
-        <v>7.338631442045833</v>
+        <v>0.4393881859125</v>
       </c>
       <c r="R6">
-        <v>44.031788652275</v>
+        <v>2.636329115475</v>
       </c>
       <c r="S6">
-        <v>0.529182559297988</v>
+        <v>0.5468044392768759</v>
       </c>
       <c r="T6">
-        <v>0.5556393812124037</v>
+        <v>0.4550583980523609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>7.7788495</v>
+        <v>0.4657455</v>
       </c>
       <c r="H7">
-        <v>15.557699</v>
+        <v>0.931491</v>
       </c>
       <c r="I7">
-        <v>0.9574768182179889</v>
+        <v>0.5741314752208871</v>
       </c>
       <c r="J7">
-        <v>0.9375431591259914</v>
+        <v>0.4733409658078355</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.3453655</v>
+        <v>0.027735</v>
       </c>
       <c r="N7">
-        <v>0.6907310000000001</v>
+        <v>0.05547</v>
       </c>
       <c r="O7">
-        <v>0.2023282374213989</v>
+        <v>0.02799942658466558</v>
       </c>
       <c r="P7">
-        <v>0.1446404400456999</v>
+        <v>0.01884214076882864</v>
       </c>
       <c r="Q7">
-        <v>2.68654624699225</v>
+        <v>0.0129174514425</v>
       </c>
       <c r="R7">
-        <v>10.746184987969</v>
+        <v>0.05166980576999999</v>
       </c>
       <c r="S7">
-        <v>0.1937245970018948</v>
+        <v>0.01607535209039298</v>
       </c>
       <c r="T7">
-        <v>0.1356066550978191</v>
+        <v>0.00891875710940454</v>
       </c>
     </row>
   </sheetData>
